--- a/src/test/resources/DataSheet.xlsx
+++ b/src/test/resources/DataSheet.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalai\eclipse-workspace\SeleniumJavaProject2023\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231DDD3E-21FF-4ADA-9FEA-29A98324078A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{179D4499-BA20-4AF5-91D2-898A9E2291DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>aa</t>
   </si>
@@ -40,6 +36,15 @@
   </si>
   <si>
     <t>ee</t>
+  </si>
+  <si>
+    <t>fgdf</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>sd</t>
   </si>
 </sst>
 </file>
@@ -360,7 +365,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,6 +391,18 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
